--- a/Static behaviour.xlsx
+++ b/Static behaviour.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luc\Desktop\DFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2448D0-7211-4963-9AD1-0BE6E2AD298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D1A1B-E187-43E1-AAC3-19F1941B8024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F77918AF-1193-4A87-90CC-908275424A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,12 +44,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>input</t>
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>time constants</t>
+  </si>
+  <si>
+    <t>gain</t>
   </si>
 </sst>
 </file>
@@ -94,6 +108,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9259-4AD0-A9D4-2BA548DFE984}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1243772271"/>
+        <c:axId val="1243766511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1243772271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243766511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1243766511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243772271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FADFF14-FA33-84DB-53A0-41DAD88121A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,81 +1364,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F32D0E-525A-49E3-9404-22CE08CC5C6C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.4355</v>
+      </c>
+      <c r="E3">
+        <f>B3/A3</f>
+        <v>1.4355</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="C4">
+        <f>(B4-B2)*0.6</f>
+        <v>1.4484000000000001</v>
+      </c>
+      <c r="D4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="0">B4/A4</f>
+        <v>1.2070000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1783333333333335</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="C6">
+        <f>(B6-B4)*0.6+B4</f>
+        <v>3.5227999999999997</v>
+      </c>
+      <c r="D6">
+        <f>18.29-15</f>
+        <v>3.2899999999999991</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.0654999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>5.15</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>5.92</v>
+      </c>
+      <c r="C8">
+        <f>(B8-B6)*0.6+B6</f>
+        <v>5.2568000000000001</v>
+      </c>
+      <c r="D8">
+        <f>32.89-30</f>
+        <v>2.8900000000000006</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.98666666666666669</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>6.53</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.93285714285714294</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="C10">
+        <f>(B10-B8)*0.6+B8</f>
+        <v>6.8229999999999995</v>
+      </c>
+      <c r="D10">
+        <f>48.29-45</f>
+        <v>3.2899999999999991</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.92812499999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>8.1289999999999996</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.90322222222222215</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C12">
+        <f>(B12-B10)*0.6+B10</f>
+        <v>8.2439999999999998</v>
+      </c>
+      <c r="D12">
+        <f>62.29-60</f>
+        <v>2.2899999999999991</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.87899999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>AVERAGE(D4:D12)</f>
+        <v>2.8039999999999994</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E3:E12)</f>
+        <v>1.0546204365079366</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Static behaviour.xlsx
+++ b/Static behaviour.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luc\Desktop\DFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D1A1B-E187-43E1-AAC3-19F1941B8024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056BA45-9CA7-4811-AF94-96D17FF2076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F77918AF-1193-4A87-90CC-908275424A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>input</t>
   </si>
@@ -56,6 +48,12 @@
   </si>
   <si>
     <t>gain</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>simu sec</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F32D0E-525A-49E3-9404-22CE08CC5C6C}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,6 +1561,41 @@
         <v>1.0546204365079366</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <f>2*60+55</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>B19/A19</f>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A20/B20</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Static behaviour.xlsx
+++ b/Static behaviour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luc\Desktop\DFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byron\Desktop\DFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056BA45-9CA7-4811-AF94-96D17FF2076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E0024-6308-494B-B99F-D0E75E7E6CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F77918AF-1193-4A87-90CC-908275424A08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F77918AF-1193-4A87-90CC-908275424A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,29 +38,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>time constants</t>
-  </si>
-  <si>
-    <t>gain</t>
-  </si>
-  <si>
     <t>sec</t>
   </si>
   <si>
-    <t>simu sec</t>
+    <t>simu</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Time Constants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +104,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>output</c:v>
+                  <c:v>Output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1243766511"/>
@@ -378,7 +422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1243772271"/>
@@ -420,7 +464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -457,7 +501,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1362,211 +1406,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F32D0E-525A-49E3-9404-22CE08CC5C6C}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.4355</v>
       </c>
-      <c r="E3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <f>B3/A3</f>
         <v>1.4355</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.4140000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>(B4-B2)*0.6</f>
         <v>1.4484000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E12" si="0">B4/A4</f>
         <v>1.2070000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.5350000000000001</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1.1783333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4.2619999999999996</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>(B6-B4)*0.6+B4</f>
         <v>3.5227999999999997</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f>18.29-15</f>
         <v>3.2899999999999991</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1.0654999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5.15</v>
       </c>
-      <c r="E7">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>5.92</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>(B8-B6)*0.6+B6</f>
         <v>5.2568000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f>32.89-30</f>
         <v>2.8900000000000006</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.98666666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>6.53</v>
       </c>
-      <c r="E9">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.93285714285714294</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>7.4249999999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>(B10-B8)*0.6+B8</f>
         <v>6.8229999999999995</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f>48.29-45</f>
         <v>3.2899999999999991</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.92812499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>8.1289999999999996</v>
       </c>
-      <c r="E11">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.90322222222222215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>8.7899999999999991</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f>(B12-B10)*0.6+B10</f>
         <v>8.2439999999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f>62.29-60</f>
         <v>2.2899999999999991</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.87899999999999989</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <f>AVERAGE(D4:D12)</f>
         <v>2.8039999999999994</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>AVERAGE(E3:E12)</f>
         <v>1.0546204365079366</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,8 +1669,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>D14</f>
+        <v>2.8039999999999994</v>
+      </c>
+      <c r="B22">
+        <f>A22*B20</f>
+        <v>16.356666666666662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>